--- a/Problems Solved.xlsx
+++ b/Problems Solved.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Problem</t>
   </si>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t>Prime Number</t>
+  </si>
+  <si>
+    <t>Number of Digits in a Number</t>
+  </si>
+  <si>
+    <t>isPalindrome</t>
+  </si>
+  <si>
+    <t>Factorial of a Number</t>
+  </si>
+  <si>
+    <t>Trailing Zeroes in a Factorial</t>
+  </si>
+  <si>
+    <t>GCD of Two Numbers</t>
+  </si>
+  <si>
+    <t>LCM of Two Numbers</t>
+  </si>
+  <si>
+    <t>Prime Factors</t>
   </si>
 </sst>
 </file>
@@ -390,7 +411,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,41 +458,84 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -522,8 +586,14 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Problems Solved.xlsx
+++ b/Problems Solved.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Problem</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>Prime Factors</t>
+  </si>
+  <si>
+    <t>All Divisors of a Number</t>
+  </si>
+  <si>
+    <t>Sieve of Erastosthenes</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Largest Element in Array</t>
+  </si>
+  <si>
+    <t>Second Largest</t>
+  </si>
+  <si>
+    <t>Check if array is sorted</t>
+  </si>
+  <si>
+    <t>Remove Duplicate elements from sorted array</t>
+  </si>
+  <si>
+    <t>Move all zeroes to end of array</t>
   </si>
 </sst>
 </file>
@@ -410,15 +434,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,49 +559,98 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -592,8 +665,15 @@
     <hyperlink ref="C8" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Problems Solved.xlsx
+++ b/Problems Solved.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Problem</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>Move all zeroes to end of array</t>
+  </si>
+  <si>
+    <t>Difficulty Rating Order</t>
+  </si>
+  <si>
+    <t>Cost of Groceries</t>
+  </si>
+  <si>
+    <t>Running Comparison</t>
+  </si>
+  <si>
+    <t>Codechef Streak</t>
+  </si>
+  <si>
+    <t>Left Rotate an Array by One</t>
+  </si>
+  <si>
+    <t>Rotate Array by D Steps</t>
+  </si>
+  <si>
+    <t>Leader in an Array</t>
   </si>
 </sst>
 </file>
@@ -432,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +660,9 @@
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -648,11 +671,107 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -672,8 +791,15 @@
     <hyperlink ref="C15" r:id="rId13"/>
     <hyperlink ref="C16" r:id="rId14"/>
     <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C19" r:id="rId17"/>
+    <hyperlink ref="C20" r:id="rId18"/>
+    <hyperlink ref="C21" r:id="rId19"/>
+    <hyperlink ref="C22" r:id="rId20"/>
+    <hyperlink ref="C23" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Problems Solved.xlsx
+++ b/Problems Solved.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Problem</t>
   </si>
@@ -108,13 +108,16 @@
   </si>
   <si>
     <t>Leader in an Array</t>
+  </si>
+  <si>
+    <t>Total Problems Solved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +141,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,12 +180,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,8 +208,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -177,7 +220,26 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -188,6 +250,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:C220" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:C220"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Sr. No."/>
+    <tableColumn id="2" name="Topic"/>
+    <tableColumn id="3" name="Problem"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,353 +527,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5">
+        <f>LOOKUP(2,1/(A3:A298&lt;&gt;""),A3:A14)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
-    <hyperlink ref="C23" r:id="rId21"/>
-    <hyperlink ref="C24" r:id="rId22"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C21" r:id="rId18"/>
+    <hyperlink ref="C22" r:id="rId19"/>
+    <hyperlink ref="C23" r:id="rId20"/>
+    <hyperlink ref="C24" r:id="rId21"/>
+    <hyperlink ref="C25" r:id="rId22"/>
+    <hyperlink ref="B1" r:id="rId23" display="https://exceljet.net/functions/lookup-function"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <tableParts count="1">
+    <tablePart r:id="rId25"/>
+  </tableParts>
 </worksheet>
 </file>